--- a/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
+++ b/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC Control\0 GitHub\Sector-Files\_Shared Resources\TopSky\MSAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF937A2-3CD9-4776-A288-0EB21552AE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768066B4-28DF-4479-8329-6FB607D5D6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="16440" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
+    <workbookView xWindow="57480" yWindow="-1770" windowWidth="29040" windowHeight="16440" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
   </bookViews>
   <sheets>
     <sheet name="MSAW" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>South Edge</t>
   </si>
@@ -49,9 +49,6 @@
     <t>S018</t>
   </si>
   <si>
-    <t>E013</t>
-  </si>
-  <si>
     <t>S019</t>
   </si>
   <si>
@@ -73,6 +70,21 @@
     <t>S025</t>
   </si>
   <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>W006</t>
+  </si>
+  <si>
+    <t>E010</t>
+  </si>
+  <si>
+    <t>E029</t>
+  </si>
+  <si>
     <t>S026</t>
   </si>
   <si>
@@ -97,19 +109,16 @@
     <t>S033</t>
   </si>
   <si>
-    <t>S034</t>
-  </si>
-  <si>
-    <t>E012</t>
-  </si>
-  <si>
-    <t>E011</t>
-  </si>
-  <si>
-    <t>E014</t>
-  </si>
-  <si>
-    <t>E015</t>
+    <t>E028</t>
+  </si>
+  <si>
+    <t>E027</t>
+  </si>
+  <si>
+    <t>E026</t>
+  </si>
+  <si>
+    <t>E025</t>
   </si>
 </sst>
 </file>
@@ -474,18 +483,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A78920B-173E-4272-A085-64BC10408654}">
-  <dimension ref="A2:T19"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A13"/>
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f t="shared" ref="A1" si="0">"L:"&amp;D1&amp;".00.00:"&amp;E1&amp;".00.00:1:1:"&amp;C1&amp;":"&amp;F1&amp;"00:"&amp;G1&amp;"00:"&amp;H1&amp;"00:"&amp;I1&amp;"00:"&amp;J1&amp;"00:"&amp;K1&amp;"00:"&amp;L1&amp;"00:"&amp;M1&amp;"00:"&amp;N1&amp;"00:"&amp;O1&amp;"00:"&amp;P1&amp;"00:"&amp;Q1&amp;"00:"&amp;R1&amp;"00:"&amp;S1&amp;"00:"&amp;T1&amp;"00:"&amp;U1&amp;"00:"&amp;V1&amp;"00:"&amp;W1&amp;"00:"&amp;X1&amp;"00:"&amp;Y1&amp;"00"</f>
+        <v>L:S016.00.00:W006.00.00:1:1:1:3700:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ref="C1" si="1">COUNT(F1:AC1)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -496,558 +524,467 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A7" si="0">"L:"&amp;D3&amp;".00.00:"&amp;E3&amp;".00.00:1:1:"&amp;C3&amp;":"&amp;F3&amp;"00:"&amp;G3&amp;"00:"&amp;H3&amp;"00:"&amp;I3&amp;"00:"&amp;J3&amp;"00:"&amp;K3&amp;"00:"&amp;L3&amp;"00:"&amp;M3&amp;"00:"&amp;N3&amp;"00:"&amp;O3&amp;"00:"&amp;P3&amp;"00:"&amp;Q3&amp;"00:"&amp;R3&amp;"00:"&amp;S3&amp;"00:"&amp;T3&amp;"00:"&amp;U3&amp;"00:"&amp;V3&amp;"00:"&amp;W3&amp;"00:"&amp;X3&amp;"00:"&amp;Y3&amp;"00"</f>
-        <v>L:S018.00.00:E013.00.00:1:1:15:2700:9000:9200:7200:5300:5200:5200:5200:5200:5100:5200:4700:5400:5300:5800:00:00:00:00:00</v>
+        <f>"L:"&amp;D3&amp;".00.00:"&amp;E3&amp;".00.00:1:1:"&amp;C3&amp;":"&amp;F3&amp;"00:"&amp;G3&amp;"00:"&amp;H3&amp;"00:"&amp;I3&amp;"00:"&amp;J3&amp;"00:"&amp;K3&amp;"00:"&amp;L3&amp;"00:"&amp;M3&amp;"00:"&amp;N3&amp;"00:"&amp;O3&amp;"00:"&amp;P3&amp;"00:"&amp;Q3&amp;"00:"&amp;R3&amp;"00:"&amp;S3&amp;"00:"&amp;T3&amp;"00:"&amp;U3&amp;"00:"&amp;V3&amp;"00:"&amp;W3&amp;"00:"&amp;X3&amp;"00:"&amp;Y3&amp;"00:"&amp;Z3&amp;"00"</f>
+        <v>L:S016.00.00:E028.00.00:1:1:3:6000:8200:8200:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C3">
         <f>COUNT(F3:AC3)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>82</v>
+      </c>
+      <c r="H3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f t="shared" ref="A4:A19" si="2">"L:"&amp;D4&amp;".00.00:"&amp;E4&amp;".00.00:1:1:"&amp;C4&amp;":"&amp;F4&amp;"00:"&amp;G4&amp;"00:"&amp;H4&amp;"00:"&amp;I4&amp;"00:"&amp;J4&amp;"00:"&amp;K4&amp;"00:"&amp;L4&amp;"00:"&amp;M4&amp;"00:"&amp;N4&amp;"00:"&amp;O4&amp;"00:"&amp;P4&amp;"00:"&amp;Q4&amp;"00:"&amp;R4&amp;"00:"&amp;S4&amp;"00:"&amp;T4&amp;"00:"&amp;U4&amp;"00:"&amp;V4&amp;"00:"&amp;W4&amp;"00:"&amp;X4&amp;"00:"&amp;Y4&amp;"00:"&amp;Z4&amp;"00"</f>
+        <v>L:S017.00.00:E027.00.00:1:1:6:5900:7400:7200:8200:7700:5200:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C19" si="3">COUNT(F4:AC4)</f>
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>59</v>
+      </c>
+      <c r="G4">
+        <v>74</v>
+      </c>
+      <c r="H4">
+        <v>72</v>
+      </c>
+      <c r="I4">
+        <v>82</v>
+      </c>
+      <c r="J4">
+        <v>77</v>
+      </c>
+      <c r="K4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S018.00.00:E025.00.00:1:1:9:5800:5800:7400:7400:5800:8200:7900:9700:7900:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>58</v>
+      </c>
+      <c r="H5">
+        <v>74</v>
+      </c>
+      <c r="I5">
+        <v>74</v>
+      </c>
+      <c r="J5">
+        <v>58</v>
+      </c>
+      <c r="K5">
+        <v>82</v>
+      </c>
+      <c r="L5">
+        <v>79</v>
+      </c>
+      <c r="M5">
+        <v>97</v>
+      </c>
+      <c r="N5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S019.00.00:E025.00.00:1:1:9:7100:7100:6000:6000:6000:7900:8200:10900:8500:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="G3">
-        <v>90</v>
-      </c>
-      <c r="H3">
-        <v>92</v>
-      </c>
-      <c r="I3">
-        <v>72</v>
-      </c>
-      <c r="J3">
-        <v>53</v>
-      </c>
-      <c r="K3">
-        <v>52</v>
-      </c>
-      <c r="L3">
-        <v>52</v>
-      </c>
-      <c r="M3">
-        <v>52</v>
-      </c>
-      <c r="N3">
-        <v>52</v>
-      </c>
-      <c r="O3">
-        <v>51</v>
-      </c>
-      <c r="P3">
-        <v>52</v>
-      </c>
-      <c r="Q3">
-        <v>47</v>
-      </c>
-      <c r="R3">
-        <v>54</v>
-      </c>
-      <c r="S3">
-        <v>53</v>
-      </c>
-      <c r="T3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>L:S019.00.00:E013.00.00:1:1:15:2400:6000:8500:8000:5100:5100:5200:5300:5300:5100:6000:4800:4500:5100:7100:00:00:00:00:00</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C19" si="1">COUNT(F4:AC4)</f>
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F6">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>79</v>
+      </c>
+      <c r="L6">
+        <v>82</v>
+      </c>
+      <c r="M6">
+        <v>109</v>
+      </c>
+      <c r="N6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S020.00.00:E025.00.00:1:1:9:7100:7100:5500:6000:7600:7500:7400:9800:10400:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="G4">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>71</v>
+      </c>
+      <c r="G7">
+        <v>71</v>
+      </c>
+      <c r="H7">
+        <v>55</v>
+      </c>
+      <c r="I7">
         <v>60</v>
       </c>
-      <c r="H4">
-        <v>85</v>
-      </c>
-      <c r="I4">
-        <v>80</v>
-      </c>
-      <c r="J4">
-        <v>51</v>
-      </c>
-      <c r="K4">
-        <v>51</v>
-      </c>
-      <c r="L4">
-        <v>52</v>
-      </c>
-      <c r="M4">
-        <v>53</v>
-      </c>
-      <c r="N4">
-        <v>53</v>
-      </c>
-      <c r="O4">
-        <v>51</v>
-      </c>
-      <c r="P4">
-        <v>60</v>
-      </c>
-      <c r="Q4">
-        <v>48</v>
-      </c>
-      <c r="R4">
-        <v>45</v>
-      </c>
-      <c r="S4">
-        <v>51</v>
-      </c>
-      <c r="T4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>L:S020.00.00:E012.00.00:1:1:9:3800:7700:8200:7900:8300:9400:8000:5400:5400:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>38</v>
-      </c>
-      <c r="G5">
-        <v>77</v>
-      </c>
-      <c r="H5">
-        <v>82</v>
-      </c>
-      <c r="I5">
-        <v>79</v>
-      </c>
-      <c r="J5">
-        <v>83</v>
-      </c>
-      <c r="K5">
-        <v>94</v>
-      </c>
-      <c r="L5">
-        <v>80</v>
-      </c>
-      <c r="M5">
-        <v>54</v>
-      </c>
-      <c r="N5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>L:S021.00.00:E011.00.00:1:1:8:7200:7600:9000:8500:8700:7100:5900:5400:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>72</v>
-      </c>
-      <c r="G6">
+      <c r="J7">
         <v>76</v>
       </c>
-      <c r="H6">
-        <v>90</v>
-      </c>
-      <c r="I6">
-        <v>85</v>
-      </c>
-      <c r="J6">
-        <v>87</v>
-      </c>
-      <c r="K6">
-        <v>71</v>
-      </c>
-      <c r="L6">
-        <v>59</v>
-      </c>
-      <c r="M6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>L:S022.00.00:E013.00.00:1:1:8:3900:10800:10000:9800:8400:7900:7400:5800:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>39</v>
-      </c>
-      <c r="G7">
-        <v>108</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>98</v>
-      </c>
-      <c r="J7">
-        <v>84</v>
-      </c>
       <c r="K7">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L7">
         <v>74</v>
       </c>
       <c r="M7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="N7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>"L:"&amp;D8&amp;".00.00:"&amp;E8&amp;".00.00:1:1:"&amp;C8&amp;":"&amp;F8&amp;"00:"&amp;G8&amp;"00:"&amp;H8&amp;"00:"&amp;I8&amp;"00:"&amp;J8&amp;"00:"&amp;K8&amp;"00:"&amp;L8&amp;"00:"&amp;M8&amp;"00:"&amp;N8&amp;"00:"&amp;O8&amp;"00:"&amp;P8&amp;"00:"&amp;Q8&amp;"00:"&amp;R8&amp;"00:"&amp;S8&amp;"00:"&amp;T8&amp;"00:"&amp;U8&amp;"00:"&amp;V8&amp;"00:"&amp;W8&amp;"00:"&amp;X8&amp;"00:"&amp;Y8&amp;"00"</f>
-        <v>L:S023.00.00:E014.00.00:1:1:6:4500:8900:10100:10400:8100:7300:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <f t="shared" si="2"/>
+        <v>L:S021.00.00:E026.00.00:1:1:7:5000:7200:7500:7800:00:7800:7500:7500:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>75</v>
+      </c>
+      <c r="I8">
+        <v>78</v>
+      </c>
+      <c r="K8">
+        <v>78</v>
+      </c>
+      <c r="L8">
+        <v>75</v>
+      </c>
+      <c r="M8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S022.00.00:E027.00.00:1:1:6:5000:7500:7800:7800:7500:7500:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>78</v>
+      </c>
+      <c r="I9">
+        <v>78</v>
+      </c>
+      <c r="J9">
+        <v>75</v>
+      </c>
+      <c r="K9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S023.00.00:E028.00.00:1:1:4:5000:8100:7600:3400:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>81</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="I10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S024.00.00:E025.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8">
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <v>89</v>
-      </c>
-      <c r="H8">
-        <v>101</v>
-      </c>
-      <c r="I8">
-        <v>104</v>
-      </c>
-      <c r="J8">
-        <v>81</v>
-      </c>
-      <c r="K8">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f t="shared" ref="A9:A19" si="2">"L:"&amp;D9&amp;".00.00:"&amp;E9&amp;".00.00:1:1:"&amp;C9&amp;":"&amp;F9&amp;"00:"&amp;G9&amp;"00:"&amp;H9&amp;"00:"&amp;I9&amp;"00:"&amp;J9&amp;"00:"&amp;K9&amp;"00:"&amp;L9&amp;"00:"&amp;M9&amp;"00:"&amp;N9&amp;"00:"&amp;O9&amp;"00:"&amp;P9&amp;"00:"&amp;Q9&amp;"00:"&amp;R9&amp;"00:"&amp;S9&amp;"00:"&amp;T9&amp;"00:"&amp;U9&amp;"00:"&amp;V9&amp;"00:"&amp;W9&amp;"00:"&amp;X9&amp;"00:"&amp;Y9&amp;"00"</f>
-        <v>L:S024.00.00:E014.00.00:1:1:6:3200:7200:10400:9700:7400:7100:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S025.00.00:E025.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>32</v>
-      </c>
-      <c r="G9">
-        <v>72</v>
-      </c>
-      <c r="H9">
-        <v>104</v>
-      </c>
-      <c r="I9">
-        <v>97</v>
-      </c>
-      <c r="J9">
-        <v>74</v>
-      </c>
-      <c r="K9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S025.00.00:E014.00.00:1:1:7:3200:8800:9300:7100:5400:5400:5800:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>88</v>
-      </c>
-      <c r="H10">
-        <v>93</v>
-      </c>
-      <c r="I10">
-        <v>71</v>
-      </c>
-      <c r="J10">
-        <v>54</v>
-      </c>
-      <c r="K10">
-        <v>54</v>
-      </c>
-      <c r="L10">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S026.00.00:E014.00.00:1:1:7:2100:8600:9200:7800:5200:5000:4800:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11">
-        <v>21</v>
-      </c>
-      <c r="G11">
-        <v>86</v>
-      </c>
-      <c r="H11">
-        <v>92</v>
-      </c>
-      <c r="I11">
-        <v>78</v>
-      </c>
-      <c r="J11">
-        <v>52</v>
-      </c>
-      <c r="K11">
-        <v>50</v>
-      </c>
-      <c r="L11">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S027.00.00:E014.00.00:1:1:7:1900:5200:8700:7200:8100:4800:4400:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
       <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S026.00.00:E025.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f>"L:"&amp;D14&amp;".00.00:"&amp;E14&amp;".00.00:1:1:"&amp;C14&amp;":"&amp;F14&amp;"00:"&amp;G14&amp;"00:"&amp;G5&amp;"00:"&amp;H5&amp;"00:"&amp;I5&amp;"00:"&amp;J5&amp;"00:"&amp;K5&amp;"00:"&amp;L5&amp;"00:"&amp;M5&amp;"00:"&amp;N5&amp;"00:"&amp;P14&amp;"00:"&amp;Q14&amp;"00:"&amp;R14&amp;"00:"&amp;S14&amp;"00:"&amp;T14&amp;"00:"&amp;U14&amp;"00:"&amp;V14&amp;"00:"&amp;W14&amp;"00:"&amp;X14&amp;"00:"&amp;Y14&amp;"00:"&amp;Z14&amp;"00"</f>
+        <v>L:S027.00.00:E025.00.00:1:1:0:00:00:5800:7400:7400:5800:8200:7900:9700:7900:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S028.00.00:E025.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S029.00.00:E025.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="G12">
-        <v>52</v>
-      </c>
-      <c r="H12">
-        <v>87</v>
-      </c>
-      <c r="I12">
-        <v>72</v>
-      </c>
-      <c r="J12">
-        <v>81</v>
-      </c>
-      <c r="K12">
-        <v>48</v>
-      </c>
-      <c r="L12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S028.00.00:E015.00.00:1:1:6:4600:8100:7700:9800:7600:4500:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13">
-        <v>46</v>
-      </c>
-      <c r="G13">
-        <v>81</v>
-      </c>
-      <c r="H13">
-        <v>77</v>
-      </c>
-      <c r="I13">
-        <v>98</v>
-      </c>
-      <c r="J13">
-        <v>76</v>
-      </c>
-      <c r="K13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S029.00.00:E014.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S030.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S031.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S032.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S030.00.00:E025.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S033.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S031.00.00:E027.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S034.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S032.00.00:E029.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
+++ b/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC Control\0 GitHub\Sector-Files\_Shared Resources\TopSky\MSAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768066B4-28DF-4479-8329-6FB607D5D6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90EBBC2-D9C0-4DE5-9AB0-19AEEC4D596C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-1770" windowWidth="29040" windowHeight="16440" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>South Edge</t>
   </si>
@@ -46,79 +46,121 @@
     <t>MSA Start</t>
   </si>
   <si>
-    <t>S018</t>
-  </si>
-  <si>
-    <t>S019</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>S023</t>
-  </si>
-  <si>
-    <t>S024</t>
-  </si>
-  <si>
-    <t>S025</t>
-  </si>
-  <si>
     <t>S016</t>
   </si>
   <si>
-    <t>S017</t>
-  </si>
-  <si>
     <t>W006</t>
   </si>
   <si>
-    <t>E010</t>
-  </si>
-  <si>
-    <t>E029</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S029</t>
-  </si>
-  <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t>S031</t>
-  </si>
-  <si>
-    <t>S032</t>
-  </si>
-  <si>
-    <t>S033</t>
-  </si>
-  <si>
-    <t>E028</t>
-  </si>
-  <si>
-    <t>E027</t>
-  </si>
-  <si>
-    <t>E026</t>
-  </si>
-  <si>
-    <t>E025</t>
+    <t>N027</t>
+  </si>
+  <si>
+    <t>N026</t>
+  </si>
+  <si>
+    <t>N025</t>
+  </si>
+  <si>
+    <t>N024</t>
+  </si>
+  <si>
+    <t>N023</t>
+  </si>
+  <si>
+    <t>N022</t>
+  </si>
+  <si>
+    <t>N021</t>
+  </si>
+  <si>
+    <t>N020</t>
+  </si>
+  <si>
+    <t>N019</t>
+  </si>
+  <si>
+    <t>N018</t>
+  </si>
+  <si>
+    <t>N017</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>N015</t>
+  </si>
+  <si>
+    <t>N014</t>
+  </si>
+  <si>
+    <t>N013</t>
+  </si>
+  <si>
+    <t>N012</t>
+  </si>
+  <si>
+    <t>N011</t>
+  </si>
+  <si>
+    <t>N010</t>
+  </si>
+  <si>
+    <t>N009</t>
+  </si>
+  <si>
+    <t>N008</t>
+  </si>
+  <si>
+    <t>N007</t>
+  </si>
+  <si>
+    <t>N006</t>
+  </si>
+  <si>
+    <t>N005</t>
+  </si>
+  <si>
+    <t>N004</t>
+  </si>
+  <si>
+    <t>N003</t>
+  </si>
+  <si>
+    <t>N002</t>
+  </si>
+  <si>
+    <t>N001</t>
+  </si>
+  <si>
+    <t>N000</t>
+  </si>
+  <si>
+    <t>W012</t>
+  </si>
+  <si>
+    <t>W011</t>
+  </si>
+  <si>
+    <t>W010</t>
+  </si>
+  <si>
+    <t>W013</t>
+  </si>
+  <si>
+    <t>W014</t>
+  </si>
+  <si>
+    <t>W018</t>
+  </si>
+  <si>
+    <t>W017</t>
+  </si>
+  <si>
+    <t>W016</t>
+  </si>
+  <si>
+    <t>W015</t>
   </si>
 </sst>
 </file>
@@ -483,18 +525,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A78920B-173E-4272-A085-64BC10408654}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" style="1" customWidth="1"/>
+    <col min="7" max="26" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
         <f t="shared" ref="A1" si="0">"L:"&amp;D1&amp;".00.00:"&amp;E1&amp;".00.00:1:1:"&amp;C1&amp;":"&amp;F1&amp;"00:"&amp;G1&amp;"00:"&amp;H1&amp;"00:"&amp;I1&amp;"00:"&amp;J1&amp;"00:"&amp;K1&amp;"00:"&amp;L1&amp;"00:"&amp;M1&amp;"00:"&amp;N1&amp;"00:"&amp;O1&amp;"00:"&amp;P1&amp;"00:"&amp;Q1&amp;"00:"&amp;R1&amp;"00:"&amp;S1&amp;"00:"&amp;T1&amp;"00:"&amp;U1&amp;"00:"&amp;V1&amp;"00:"&amp;W1&amp;"00:"&amp;X1&amp;"00:"&amp;Y1&amp;"00"</f>
         <v>L:S016.00.00:W006.00.00:1:1:1:3700:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
@@ -504,16 +547,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -524,467 +567,1286 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>"L:"&amp;D3&amp;".00.00:"&amp;E3&amp;".00.00:1:1:"&amp;C3&amp;":"&amp;F3&amp;"00:"&amp;G3&amp;"00:"&amp;H3&amp;"00:"&amp;I3&amp;"00:"&amp;J3&amp;"00:"&amp;K3&amp;"00:"&amp;L3&amp;"00:"&amp;M3&amp;"00:"&amp;N3&amp;"00:"&amp;O3&amp;"00:"&amp;P3&amp;"00:"&amp;Q3&amp;"00:"&amp;R3&amp;"00:"&amp;S3&amp;"00:"&amp;T3&amp;"00:"&amp;U3&amp;"00:"&amp;V3&amp;"00:"&amp;W3&amp;"00:"&amp;X3&amp;"00:"&amp;Y3&amp;"00:"&amp;Z3&amp;"00"</f>
-        <v>L:S016.00.00:E028.00.00:1:1:3:6000:8200:8200:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N027.00.00:W012.00.00:1:1:5:3700:3700:2700:2700:2900:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C3">
         <f>COUNT(F3:AC3)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f t="shared" ref="A4:A19" si="2">"L:"&amp;D4&amp;".00.00:"&amp;E4&amp;".00.00:1:1:"&amp;C4&amp;":"&amp;F4&amp;"00:"&amp;G4&amp;"00:"&amp;H4&amp;"00:"&amp;I4&amp;"00:"&amp;J4&amp;"00:"&amp;K4&amp;"00:"&amp;L4&amp;"00:"&amp;M4&amp;"00:"&amp;N4&amp;"00:"&amp;O4&amp;"00:"&amp;P4&amp;"00:"&amp;Q4&amp;"00:"&amp;R4&amp;"00:"&amp;S4&amp;"00:"&amp;T4&amp;"00:"&amp;U4&amp;"00:"&amp;V4&amp;"00:"&amp;W4&amp;"00:"&amp;X4&amp;"00:"&amp;Y4&amp;"00:"&amp;Z4&amp;"00"</f>
-        <v>L:S017.00.00:E027.00.00:1:1:6:5900:7400:7200:8200:7700:5200:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <f t="shared" ref="A4:A21" si="2">"L:"&amp;D4&amp;".00.00:"&amp;E4&amp;".00.00:1:1:"&amp;C4&amp;":"&amp;F4&amp;"00:"&amp;G4&amp;"00:"&amp;H4&amp;"00:"&amp;I4&amp;"00:"&amp;J4&amp;"00:"&amp;K4&amp;"00:"&amp;L4&amp;"00:"&amp;M4&amp;"00:"&amp;N4&amp;"00:"&amp;O4&amp;"00:"&amp;P4&amp;"00:"&amp;Q4&amp;"00:"&amp;R4&amp;"00:"&amp;S4&amp;"00:"&amp;T4&amp;"00:"&amp;U4&amp;"00:"&amp;V4&amp;"00:"&amp;W4&amp;"00:"&amp;X4&amp;"00:"&amp;Y4&amp;"00:"&amp;Z4&amp;"00"</f>
+        <v>L:N026.00.00:W012.00.00:1:1:6:4700:4500:3200:3000:3400:3100:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C19" si="3">COUNT(F4:AC4)</f>
+        <f t="shared" ref="C4:C21" si="3">COUNT(F4:AC4)</f>
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I4">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="J4">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S018.00.00:E025.00.00:1:1:9:5800:5800:7400:7400:5800:8200:7900:9700:7900:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N025.00.00:W013.00.00:1:1:9:4300:4200:4100:3300:2900:2600:3200:3400:2900:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="J5">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="L5">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="N5">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S019.00.00:E025.00.00:1:1:9:7100:7100:6000:6000:6000:7900:8200:10900:8500:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N024.00.00:W013.00.00:1:1:10:3800:3400:3000:2600:2900:3200:3000:3300:3000:3200:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C6">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I6">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="J6">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="L6">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="N6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S020.00.00:E025.00.00:1:1:9:7100:7100:5500:6000:7600:7500:7400:9800:10400:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N023.00.00:W014.00.00:1:1:11:3000:3700:4000:4000:4000:4000:2800:2800:2800:2800:2400:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="L7">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="N7">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="O7">
+        <v>28</v>
+      </c>
+      <c r="P7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S021.00.00:E026.00.00:1:1:7:5000:7200:7500:7800:00:7800:7500:7500:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N022.00.00:W014.00.00:1:1:11:3600:4400:4000:4000:4000:2500:2800:2800:2800:2800:2500:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G8">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="I8">
-        <v>78</v>
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="L8">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="N8">
+        <v>28</v>
+      </c>
+      <c r="O8">
+        <v>28</v>
+      </c>
+      <c r="P8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S022.00.00:E027.00.00:1:1:6:5000:7500:7800:7800:7500:7500:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N021.00.00:W018.00.00:1:1:15:2100:3300:3700:3700:4200:3700:4000:4000:4000:2500:2500:2500:2300:2400:2400:00:00:00:00:00:00</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I9">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J9">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>40</v>
+      </c>
+      <c r="M9">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>40</v>
+      </c>
+      <c r="O9">
+        <v>25</v>
+      </c>
+      <c r="P9">
+        <v>25</v>
+      </c>
+      <c r="Q9">
+        <v>25</v>
+      </c>
+      <c r="R9">
+        <v>23</v>
+      </c>
+      <c r="S9">
+        <v>24</v>
+      </c>
+      <c r="T9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S023.00.00:E028.00.00:1:1:4:5000:8100:7600:3400:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N020.00.00:W018.00.00:1:1:15:2100:2400:2800:3100:4000:4300:4000:4000:4000:4000:2500:2500:2500:2300:2400:00:00:00:00:00:00</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
         <v>24</v>
       </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>81</v>
-      </c>
       <c r="H10">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>43</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
+      <c r="M10">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>40</v>
+      </c>
+      <c r="O10">
+        <v>40</v>
+      </c>
+      <c r="P10">
+        <v>25</v>
+      </c>
+      <c r="Q10">
+        <v>25</v>
+      </c>
+      <c r="R10">
+        <v>25</v>
+      </c>
+      <c r="S10">
+        <v>23</v>
+      </c>
+      <c r="T10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S024.00.00:E025.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N019.00.00:W017.00.00:1:1:14:1700:2000:2500:3000:3000:4000:4000:4000:4000:2500:2500:2500:2500:2400:00:00:00:00:00:00:00</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>40</v>
+      </c>
+      <c r="O11">
+        <v>25</v>
+      </c>
+      <c r="P11">
+        <v>25</v>
+      </c>
+      <c r="Q11">
+        <v>25</v>
+      </c>
+      <c r="R11">
+        <v>25</v>
+      </c>
+      <c r="S11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S025.00.00:E025.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N018.00.00:W017.00.00:1:1:14:1500:2000:2100:2700:2800:3200:3100:2600:2600:2500:2500:2500:2500:2300:00:00:00:00:00:00:00</v>
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="I12">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>32</v>
+      </c>
+      <c r="L12">
+        <v>31</v>
+      </c>
+      <c r="M12">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <v>26</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12">
+        <v>25</v>
+      </c>
+      <c r="Q12">
+        <v>25</v>
+      </c>
+      <c r="R12">
+        <v>25</v>
+      </c>
+      <c r="S12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S026.00.00:E025.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N017.00.00:W017.00.00:1:1:14:1500:1800:1900:2400:3000:3700:2500:2100:2400:2500:2500:2500:2500:2300:00:00:00:00:00:00:00</v>
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>37</v>
+      </c>
+      <c r="L13">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>21</v>
+      </c>
+      <c r="N13">
+        <v>24</v>
+      </c>
+      <c r="O13">
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <v>25</v>
+      </c>
+      <c r="R13">
+        <v>25</v>
+      </c>
+      <c r="S13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>"L:"&amp;D14&amp;".00.00:"&amp;E14&amp;".00.00:1:1:"&amp;C14&amp;":"&amp;F14&amp;"00:"&amp;G14&amp;"00:"&amp;G5&amp;"00:"&amp;H5&amp;"00:"&amp;I5&amp;"00:"&amp;J5&amp;"00:"&amp;K5&amp;"00:"&amp;L5&amp;"00:"&amp;M5&amp;"00:"&amp;N5&amp;"00:"&amp;P14&amp;"00:"&amp;Q14&amp;"00:"&amp;R14&amp;"00:"&amp;S14&amp;"00:"&amp;T14&amp;"00:"&amp;U14&amp;"00:"&amp;V14&amp;"00:"&amp;W14&amp;"00:"&amp;X14&amp;"00:"&amp;Y14&amp;"00:"&amp;Z14&amp;"00"</f>
-        <v>L:S027.00.00:E025.00.00:1:1:0:00:00:5800:7400:7400:5800:8200:7900:9700:7900:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N016.00.00:W017.00.00:1:1:14:1500:1500:4200:4100:3300:2900:2600:3200:3400:2900:2400:2500:3000:3200:00:00:00:00:00:00:00</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>23</v>
+      </c>
+      <c r="N14">
+        <v>21</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>24</v>
+      </c>
+      <c r="Q14">
+        <v>25</v>
+      </c>
+      <c r="R14">
+        <v>30</v>
+      </c>
+      <c r="S14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S028.00.00:E025.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N015.00.00:W018.00.00:1:1:15:1600:1900:1600:1500:1700:2400:2700:2900:2700:2600:2400:2500:2600:2500:3800:00:00:00:00:00:00</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>24</v>
+      </c>
+      <c r="L15">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>29</v>
+      </c>
+      <c r="N15">
+        <v>27</v>
+      </c>
+      <c r="O15">
+        <v>26</v>
+      </c>
+      <c r="P15">
+        <v>24</v>
+      </c>
+      <c r="Q15">
+        <v>25</v>
+      </c>
+      <c r="R15">
+        <v>26</v>
+      </c>
+      <c r="S15">
+        <v>25</v>
+      </c>
+      <c r="T15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S029.00.00:E025.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N014.00.00:W018.00.00:1:1:15:1800:2100:1600:1500:1600:1900:2600:3300:2800:2800:2900:2400:2300:2600:3900:00:00:00:00:00:00</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>33</v>
+      </c>
+      <c r="N16">
+        <v>28</v>
+      </c>
+      <c r="O16">
+        <v>28</v>
+      </c>
+      <c r="P16">
+        <v>29</v>
+      </c>
+      <c r="Q16">
+        <v>24</v>
+      </c>
+      <c r="R16">
+        <v>23</v>
+      </c>
+      <c r="S16">
+        <v>26</v>
+      </c>
+      <c r="T16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S030.00.00:E025.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N013.00.00:W017.00.00:1:1:14:1700:1800:1600:1900:2700:3200:3200:3500:3400:3100:2700:2400:2900:3000:00:00:00:00:00:00:00</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>19</v>
+      </c>
+      <c r="J17">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>32</v>
+      </c>
+      <c r="L17">
+        <v>32</v>
+      </c>
+      <c r="M17">
+        <v>35</v>
+      </c>
+      <c r="N17">
+        <v>34</v>
+      </c>
+      <c r="O17">
+        <v>31</v>
+      </c>
+      <c r="P17">
+        <v>27</v>
+      </c>
+      <c r="Q17">
+        <v>24</v>
+      </c>
+      <c r="R17">
+        <v>29</v>
+      </c>
+      <c r="S17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S031.00.00:E027.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N012.00.00:W017.00.00:1:1:13:1900:1700:1600:3000:7400:4400:3800:4000:4000:3200:2900:3000:2900:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>74</v>
+      </c>
+      <c r="K18">
+        <v>44</v>
+      </c>
+      <c r="L18">
+        <v>38</v>
+      </c>
+      <c r="M18">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <v>40</v>
+      </c>
+      <c r="O18">
+        <v>32</v>
+      </c>
+      <c r="P18">
+        <v>29</v>
+      </c>
+      <c r="Q18">
+        <v>30</v>
+      </c>
+      <c r="R18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S032.00.00:E029.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N011.00.00:W017.00.00:1:1:13:1400:1500:2300:4700:6000:4900:4500:4300:3000:3200:3300:3900:3700:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>47</v>
+      </c>
+      <c r="J19">
+        <v>60</v>
+      </c>
+      <c r="K19">
+        <v>49</v>
+      </c>
+      <c r="L19">
+        <v>45</v>
+      </c>
+      <c r="M19">
+        <v>43</v>
+      </c>
+      <c r="N19">
+        <v>30</v>
+      </c>
+      <c r="O19">
+        <v>32</v>
+      </c>
+      <c r="P19">
+        <v>33</v>
+      </c>
+      <c r="Q19">
+        <v>39</v>
+      </c>
+      <c r="R19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:N010.00.00:W016.00.00:1:1:13:1700:2800:4900:6000:5100:4700:4000:3200:3400:3700:3800:3700:3200:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>28</v>
+      </c>
+      <c r="H20">
+        <v>49</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>47</v>
+      </c>
+      <c r="L20">
+        <v>40</v>
+      </c>
+      <c r="M20">
+        <v>32</v>
+      </c>
+      <c r="N20">
+        <v>34</v>
+      </c>
+      <c r="O20">
+        <v>37</v>
+      </c>
+      <c r="P20">
+        <v>38</v>
+      </c>
+      <c r="Q20">
+        <v>37</v>
+      </c>
+      <c r="R20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:N009.00.00:W015.00.00:1:1:13:1700:4700:5700:8700:5300:5600:7100:4300:4100:3300:4100:3900:3000:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>47</v>
+      </c>
+      <c r="H21">
+        <v>57</v>
+      </c>
+      <c r="I21">
+        <v>87</v>
+      </c>
+      <c r="J21">
+        <v>53</v>
+      </c>
+      <c r="K21">
+        <v>56</v>
+      </c>
+      <c r="L21">
+        <v>71</v>
+      </c>
+      <c r="M21">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>41</v>
+      </c>
+      <c r="O21">
+        <v>33</v>
+      </c>
+      <c r="P21">
+        <v>41</v>
+      </c>
+      <c r="Q21">
+        <v>39</v>
+      </c>
+      <c r="R21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
+        <f t="shared" ref="A22:A30" si="4">"L:"&amp;D22&amp;".00.00:"&amp;E22&amp;".00.00:1:1:"&amp;C22&amp;":"&amp;F22&amp;"00:"&amp;G22&amp;"00:"&amp;H22&amp;"00:"&amp;I22&amp;"00:"&amp;J22&amp;"00:"&amp;K22&amp;"00:"&amp;L22&amp;"00:"&amp;M22&amp;"00:"&amp;N22&amp;"00:"&amp;O22&amp;"00:"&amp;P22&amp;"00:"&amp;Q22&amp;"00:"&amp;R22&amp;"00:"&amp;S22&amp;"00:"&amp;T22&amp;"00:"&amp;U22&amp;"00:"&amp;V22&amp;"00:"&amp;W22&amp;"00:"&amp;X22&amp;"00:"&amp;Y22&amp;"00:"&amp;Z22&amp;"00"</f>
+        <v>L:N008.00.00:W014.00.00:1:1:12:4300:3100:4400:8000:5900:7800:4900:3900:3500:4100:3700:3900:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C30" si="5">COUNT(F22:AC22)</f>
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>43</v>
+      </c>
+      <c r="G22">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>44</v>
+      </c>
+      <c r="I22">
+        <v>80</v>
+      </c>
+      <c r="J22">
+        <v>59</v>
+      </c>
+      <c r="K22">
+        <v>78</v>
+      </c>
+      <c r="L22">
+        <v>49</v>
+      </c>
+      <c r="M22">
+        <v>39</v>
+      </c>
+      <c r="N22">
+        <v>35</v>
+      </c>
+      <c r="O22">
+        <v>41</v>
+      </c>
+      <c r="P22">
+        <v>37</v>
+      </c>
+      <c r="Q22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:N007.00.00:W014.00.00:1:1:12:1300:2300:3400:3900:4500:8100:5900:3800:3400:2900:3600:4100:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>34</v>
+      </c>
+      <c r="I23">
+        <v>39</v>
+      </c>
+      <c r="J23">
+        <v>45</v>
+      </c>
+      <c r="K23">
+        <v>81</v>
+      </c>
+      <c r="L23">
+        <v>59</v>
+      </c>
+      <c r="M23">
+        <v>38</v>
+      </c>
+      <c r="N23">
+        <v>34</v>
+      </c>
+      <c r="O23">
+        <v>29</v>
+      </c>
+      <c r="P23">
+        <v>36</v>
+      </c>
+      <c r="Q23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:N006.00.00:W012.00.00:1:1:10:2300:3400:3500:3400:4000:2600:3900:3400:3000:3800:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>34</v>
+      </c>
+      <c r="H24">
+        <v>35</v>
+      </c>
+      <c r="I24">
+        <v>34</v>
+      </c>
+      <c r="J24">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>26</v>
+      </c>
+      <c r="L24">
+        <v>39</v>
+      </c>
+      <c r="M24">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>30</v>
+      </c>
+      <c r="O24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:N005.00.00:W011.00.00:1:1:9:1800:2600:3600:4200:2800:2900:2200:2700:2700:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <v>36</v>
+      </c>
+      <c r="I25">
+        <v>42</v>
+      </c>
+      <c r="J25">
+        <v>28</v>
+      </c>
+      <c r="K25">
+        <v>29</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>27</v>
+      </c>
+      <c r="N25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:N004.00.00:W010.00.00:1:1:5:1400:2300:2700:2500:1400:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>27</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:N003.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:N002.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:N001.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:N000.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
